--- a/Results/Final Results/Samples/600Scen/Results_Sample600_05.xlsx
+++ b/Results/Final Results/Samples/600Scen/Results_Sample600_05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\600Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C2CE4E-E5CA-4ACE-9E04-2891B7AA29CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E366981-FF41-4705-BF63-EA53B5EFF718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Omega</t>
   </si>
@@ -155,13 +155,7 @@
     <t>Steprule</t>
   </si>
   <si>
-    <t>Nullhypothesis: (MeanGap)_LR &lt;= (MeanGap)_Naive</t>
-  </si>
-  <si>
     <t>unable to reject</t>
-  </si>
-  <si>
-    <t>NOCH NICHT GEMACHT</t>
   </si>
   <si>
     <t>Steprules (x,y)</t>
@@ -258,6 +252,12 @@
   </si>
   <si>
     <t>6,5</t>
+  </si>
+  <si>
+    <t>Nullhypothesis: (MeanGap)_LR &gt; (MeanGap)_Naive</t>
+  </si>
+  <si>
+    <t>reject</t>
   </si>
 </sst>
 </file>
@@ -661,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T121"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:T42"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -687,7 +687,7 @@
     <col min="19" max="19" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -740,10 +740,10 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -790,7 +790,7 @@
         <v>252.47711000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>600</v>
       </c>
@@ -840,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>600</v>
       </c>
@@ -890,10 +890,10 @@
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>600</v>
       </c>
@@ -940,13 +940,10 @@
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>600</v>
       </c>
@@ -993,10 +990,10 @@
         <v>4</v>
       </c>
       <c r="S6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>600</v>
       </c>
@@ -1043,10 +1040,10 @@
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1096,10 +1093,10 @@
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>600</v>
       </c>
@@ -1143,7 +1140,7 @@
         <v>250.24026000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>600</v>
       </c>
@@ -1187,7 +1184,7 @@
         <v>250.24026000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>600</v>
       </c>
@@ -1234,13 +1231,13 @@
         <v>15</v>
       </c>
       <c r="R11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>600</v>
       </c>
@@ -1284,7 +1281,7 @@
         <v>250.24026000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>600</v>
       </c>
@@ -1331,13 +1328,13 @@
         <v>0.05</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1384,13 +1381,13 @@
         <v>239.7901</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>600</v>
       </c>
@@ -1434,13 +1431,13 @@
         <v>239.7901</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>600</v>
       </c>
@@ -1484,10 +1481,10 @@
         <v>239.7901</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -1534,10 +1531,10 @@
         <v>239.7901</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -1584,10 +1581,10 @@
         <v>239.7901</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -1634,10 +1631,10 @@
         <v>239.7901</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1687,10 +1684,10 @@
         <v>248.29647</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -1737,10 +1734,10 @@
         <v>248.29647</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -1787,10 +1784,10 @@
         <v>248.29647</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -1837,10 +1834,10 @@
         <v>248.29647</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -1887,10 +1884,10 @@
         <v>248.29647</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1937,10 +1934,10 @@
         <v>248.29647</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -1990,10 +1987,10 @@
         <v>248.04944</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -2040,10 +2037,10 @@
         <v>248.04944</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -2090,10 +2087,10 @@
         <v>248.04944</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -2140,10 +2137,10 @@
         <v>248.04944</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -2190,10 +2187,10 @@
         <v>248.04944</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -2240,10 +2237,10 @@
         <v>248.04944</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
@@ -2293,10 +2290,10 @@
         <v>249.57310000000001</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
@@ -2343,10 +2340,10 @@
         <v>249.57310000000001</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
@@ -2393,10 +2390,10 @@
         <v>249.57310000000001</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
@@ -2443,10 +2440,10 @@
         <v>249.57310000000001</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
@@ -2493,10 +2490,10 @@
         <v>249.57310000000001</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
@@ -2543,10 +2540,10 @@
         <v>249.57310000000001</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
@@ -2596,10 +2593,10 @@
         <v>246.9374</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
@@ -2646,10 +2643,10 @@
         <v>246.9374</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
@@ -2696,10 +2693,10 @@
         <v>246.9374</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
@@ -2746,10 +2743,10 @@
         <v>246.9374</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
@@ -2796,10 +2793,10 @@
         <v>246.9374</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">

--- a/Results/Final Results/Samples/600Scen/Results_Sample600_05.xlsx
+++ b/Results/Final Results/Samples/600Scen/Results_Sample600_05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\600Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E366981-FF41-4705-BF63-EA53B5EFF718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D8C2C6-958D-41AC-80B8-980B54964B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,7 +763,8 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.0190000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.9305669561071699E-2</v>
       </c>
       <c r="H2">
         <v>0.18299000000000001</v>
@@ -807,7 +808,8 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.0190000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.9305669561071699E-2</v>
       </c>
       <c r="H3">
         <v>0.18299000000000001</v>
@@ -860,7 +862,8 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.0190000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.9305669561071699E-2</v>
       </c>
       <c r="H4">
         <v>0.18299000000000001</v>
@@ -910,7 +913,8 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.0190000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.9305669561071699E-2</v>
       </c>
       <c r="H5">
         <v>0.18299000000000001</v>
@@ -960,7 +964,8 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.0190000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.9305669561071699E-2</v>
       </c>
       <c r="H6">
         <v>0.18299000000000001</v>
@@ -1010,7 +1015,8 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.0190000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.9305669561071699E-2</v>
       </c>
       <c r="H7">
         <v>0.18299000000000001</v>
@@ -1063,7 +1069,8 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5.883E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.5565196315349445E-2</v>
       </c>
       <c r="H8">
         <v>0.14083000000000001</v>
@@ -1113,7 +1120,8 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5.883E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.5565196315349445E-2</v>
       </c>
       <c r="H9">
         <v>0.14083000000000001</v>
@@ -1157,7 +1165,8 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5.883E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.5565196315349445E-2</v>
       </c>
       <c r="H10">
         <v>0.14083000000000001</v>
@@ -1201,7 +1210,8 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.883E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.5565196315349445E-2</v>
       </c>
       <c r="H11">
         <v>0.14083000000000001</v>
@@ -1254,7 +1264,8 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.883E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.5565196315349445E-2</v>
       </c>
       <c r="H12">
         <v>0.14083000000000001</v>
@@ -1298,7 +1309,8 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.883E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.5565196315349445E-2</v>
       </c>
       <c r="H13">
         <v>0.14083000000000001</v>
@@ -1354,7 +1366,8 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>8.9630000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>8.2253568498917073E-2</v>
       </c>
       <c r="H14">
         <v>0.16464000000000001</v>
@@ -1404,7 +1417,8 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>8.9630000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>8.2253568498917073E-2</v>
       </c>
       <c r="H15">
         <v>0.16464000000000001</v>
@@ -1454,7 +1468,8 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>8.9630000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>8.2253568498917073E-2</v>
       </c>
       <c r="H16">
         <v>0.16464000000000001</v>
@@ -1504,7 +1519,8 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>8.9630000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>8.2253568498917073E-2</v>
       </c>
       <c r="H17">
         <v>0.16464000000000001</v>
@@ -1554,7 +1570,8 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>8.9630000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>8.2253568498917073E-2</v>
       </c>
       <c r="H18">
         <v>0.16464000000000001</v>
@@ -1604,7 +1621,8 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>8.9630000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>8.2253568498917073E-2</v>
       </c>
       <c r="H19">
         <v>0.16464000000000001</v>
@@ -1657,7 +1675,8 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.984E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.8310676313080876E-2</v>
       </c>
       <c r="H20">
         <v>0.16854</v>
@@ -1707,7 +1726,8 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.984E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.8310676313080876E-2</v>
       </c>
       <c r="H21">
         <v>0.16854</v>
@@ -1757,7 +1777,8 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.984E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.8310676313080876E-2</v>
       </c>
       <c r="H22">
         <v>0.16854</v>
@@ -1807,7 +1828,8 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.6449999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>1.6186361597423822E-2</v>
       </c>
       <c r="H23">
         <v>0.16854</v>
@@ -1857,7 +1879,8 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.984E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.8310676313080876E-2</v>
       </c>
       <c r="H24">
         <v>0.16854</v>
@@ -1907,7 +1930,8 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.984E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.8310676313080876E-2</v>
       </c>
       <c r="H25">
         <v>0.16854</v>
@@ -1960,7 +1984,8 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>5.4780000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.1937470768324431E-2</v>
       </c>
       <c r="H26">
         <v>0.14015</v>
@@ -2010,7 +2035,8 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>5.4780000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.1937470768324431E-2</v>
       </c>
       <c r="H27">
         <v>0.14015</v>
@@ -2060,7 +2086,8 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>5.4780000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.1937470768324431E-2</v>
       </c>
       <c r="H28">
         <v>0.14015</v>
@@ -2110,7 +2137,8 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>5.4780000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.1937470768324431E-2</v>
       </c>
       <c r="H29">
         <v>0.14015</v>
@@ -2160,7 +2188,8 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>5.4780000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.1937470768324431E-2</v>
       </c>
       <c r="H30">
         <v>0.14015</v>
@@ -2210,7 +2239,8 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>5.4780000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.1937470768324431E-2</v>
       </c>
       <c r="H31">
         <v>0.14015</v>
@@ -2263,7 +2293,8 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>4.727E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.5134866281516597E-2</v>
       </c>
       <c r="H32">
         <v>0.13083</v>
@@ -2313,7 +2344,8 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>4.727E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.5134866281516597E-2</v>
       </c>
       <c r="H33">
         <v>0.13083</v>
@@ -2363,7 +2395,8 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>4.727E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.5134866281516597E-2</v>
       </c>
       <c r="H34">
         <v>0.13083</v>
@@ -2413,7 +2446,8 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>4.727E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.5134866281516597E-2</v>
       </c>
       <c r="H35">
         <v>0.13083</v>
@@ -2463,7 +2497,8 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>4.727E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.5134866281516597E-2</v>
       </c>
       <c r="H36">
         <v>0.13083</v>
@@ -2513,7 +2548,8 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>4.8710000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.6446754453709126E-2</v>
       </c>
       <c r="H37">
         <v>0.13083</v>
@@ -2566,7 +2602,8 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>5.4940000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.2075986579367552E-2</v>
       </c>
       <c r="H38">
         <v>0.15140999999999999</v>
@@ -2616,7 +2653,8 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>5.4940000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.2075986579367552E-2</v>
       </c>
       <c r="H39">
         <v>0.15140999999999999</v>
@@ -2666,7 +2704,8 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>5.4940000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.2075986579367552E-2</v>
       </c>
       <c r="H40">
         <v>0.15140999999999999</v>
@@ -2716,7 +2755,8 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>5.4940000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.2075986579367552E-2</v>
       </c>
       <c r="H41">
         <v>0.15140999999999999</v>
@@ -2766,7 +2806,8 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>5.5660000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.2726705823394573E-2</v>
       </c>
       <c r="H42">
         <v>0.15140999999999999</v>
@@ -2816,7 +2857,8 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>5.4940000000000003E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.2075986579367552E-2</v>
       </c>
       <c r="H43">
         <v>0.15140999999999999</v>
@@ -2863,7 +2905,8 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>7.7299999999999994E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>7.1750124216728342E-2</v>
       </c>
       <c r="H44">
         <v>0.13569999999999999</v>
@@ -2907,7 +2950,8 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>7.7299999999999994E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>7.1750124216728342E-2</v>
       </c>
       <c r="H45">
         <v>0.13569999999999999</v>
@@ -2951,7 +2995,8 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>7.7299999999999994E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>7.1750124216728342E-2</v>
       </c>
       <c r="H46">
         <v>0.13569999999999999</v>
@@ -2995,7 +3040,8 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>7.7299999999999994E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>7.1750124216728342E-2</v>
       </c>
       <c r="H47">
         <v>0.13569999999999999</v>
@@ -3039,7 +3085,8 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>7.7299999999999994E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>7.1750124216728342E-2</v>
       </c>
       <c r="H48">
         <v>0.13569999999999999</v>
@@ -3083,7 +3130,8 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>7.7299999999999994E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>7.1750124216728342E-2</v>
       </c>
       <c r="H49">
         <v>0.13569999999999999</v>
@@ -3130,7 +3178,8 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>8.6790000000000006E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>7.9857267553939959E-2</v>
       </c>
       <c r="H50">
         <v>0.13694000000000001</v>
@@ -3174,7 +3223,8 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>8.4839999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>7.8201684158467497E-2</v>
       </c>
       <c r="H51">
         <v>0.13694000000000001</v>
@@ -3218,7 +3268,8 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>8.4839999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>7.8201684158467497E-2</v>
       </c>
       <c r="H52">
         <v>0.13694000000000001</v>
@@ -3262,7 +3313,8 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>8.4839999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>7.8201684158467497E-2</v>
       </c>
       <c r="H53">
         <v>0.13694000000000001</v>
@@ -3306,7 +3358,8 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>8.4839999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>7.8201684158467497E-2</v>
       </c>
       <c r="H54">
         <v>0.13694000000000001</v>
@@ -3350,7 +3403,8 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>8.7290000000000006E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>8.0281321744583717E-2</v>
       </c>
       <c r="H55">
         <v>0.13694000000000001</v>
@@ -3397,7 +3451,8 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>3.7760000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.6383089260933019E-2</v>
       </c>
       <c r="H56">
         <v>0.11996</v>
@@ -3441,7 +3496,8 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>3.7760000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.6383089260933019E-2</v>
       </c>
       <c r="H57">
         <v>0.11996</v>
@@ -3485,7 +3541,8 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>3.7760000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.6383089260933019E-2</v>
       </c>
       <c r="H58">
         <v>0.11996</v>
@@ -3529,7 +3586,8 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>3.7760000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.6383089260933019E-2</v>
       </c>
       <c r="H59">
         <v>0.11996</v>
@@ -3573,7 +3631,8 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>3.7760000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.6383089260933019E-2</v>
       </c>
       <c r="H60">
         <v>0.11996</v>
@@ -3617,7 +3676,8 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>3.7760000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>3.6383089260933019E-2</v>
       </c>
       <c r="H61">
         <v>0.11996</v>
@@ -3664,7 +3724,8 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>3.0499999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.9600760109171724E-2</v>
       </c>
       <c r="H62">
         <v>0.14781</v>
@@ -3708,7 +3769,8 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>3.0499999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.9600760109171724E-2</v>
       </c>
       <c r="H63">
         <v>0.14781</v>
@@ -3752,7 +3814,8 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>3.0499999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.9600760109171724E-2</v>
       </c>
       <c r="H64">
         <v>0.14781</v>
@@ -3796,7 +3859,8 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>3.0499999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>2.9600760109171724E-2</v>
       </c>
       <c r="H65">
         <v>0.14781</v>
@@ -3840,7 +3904,8 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>4.9110000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.6813429032592523E-2</v>
       </c>
       <c r="H66">
         <v>0.14781</v>
@@ -3884,7 +3949,8 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>4.9110000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.6813429032592523E-2</v>
       </c>
       <c r="H67">
         <v>0.14781</v>
@@ -3931,7 +3997,8 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>5.3960000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.1199528718613718E-2</v>
       </c>
       <c r="H68">
         <v>0.13719999999999999</v>
@@ -3975,7 +4042,8 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>4.4979999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.304019355807772E-2</v>
       </c>
       <c r="H69">
         <v>0.13719999999999999</v>
@@ -4019,7 +4087,8 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>4.4979999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.304019355807772E-2</v>
       </c>
       <c r="H70">
         <v>0.13719999999999999</v>
@@ -4063,7 +4132,8 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>4.4979999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.304019355807772E-2</v>
       </c>
       <c r="H71">
         <v>0.13719999999999999</v>
@@ -4107,7 +4177,8 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>4.4979999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.304019355807772E-2</v>
       </c>
       <c r="H72">
         <v>0.13719999999999999</v>
@@ -4151,7 +4222,8 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>5.3960000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.1199528718613718E-2</v>
       </c>
       <c r="H73">
         <v>0.13719999999999999</v>
@@ -4198,7 +4270,8 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>4.471E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.2792153322839734E-2</v>
       </c>
       <c r="H74">
         <v>0.14429</v>
@@ -4242,7 +4315,8 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>4.471E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.2792153322839734E-2</v>
       </c>
       <c r="H75">
         <v>0.14429</v>
@@ -4286,7 +4360,8 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>4.471E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.2792153322839734E-2</v>
       </c>
       <c r="H76">
         <v>0.14429</v>
@@ -4330,7 +4405,8 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>4.471E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.2792153322839734E-2</v>
       </c>
       <c r="H77">
         <v>0.14429</v>
@@ -4374,7 +4450,8 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>4.471E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.2792153322839734E-2</v>
       </c>
       <c r="H78">
         <v>0.14429</v>
@@ -4418,7 +4495,8 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>4.471E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.2792153322839734E-2</v>
       </c>
       <c r="H79">
         <v>0.14429</v>
@@ -4465,7 +4543,8 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.10764</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>9.7180429731119899E-2</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -4509,7 +4588,8 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.10162</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>9.2245852076724588E-2</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -4553,7 +4633,8 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0.10764</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>9.7180429731119899E-2</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4597,7 +4678,8 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0.10764</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>9.7180429731119899E-2</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4641,7 +4723,8 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>8.3559999999999995E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>7.7113070162774827E-2</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4685,7 +4768,8 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>6.3390000000000002E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.9612396045663034E-2</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4732,7 +4816,8 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>5.3629999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.0903543093820385E-2</v>
       </c>
       <c r="H86">
         <v>0.13306000000000001</v>
@@ -4776,7 +4861,8 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>5.3629999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.0903543093820385E-2</v>
       </c>
       <c r="H87">
         <v>0.13306000000000001</v>
@@ -4820,7 +4906,8 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>5.3629999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.0903543093820385E-2</v>
       </c>
       <c r="H88">
         <v>0.13306000000000001</v>
@@ -4864,7 +4951,8 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>5.3629999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.0903543093820385E-2</v>
       </c>
       <c r="H89">
         <v>0.13306000000000001</v>
@@ -4908,7 +4996,8 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>5.3629999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.0903543093820385E-2</v>
       </c>
       <c r="H90">
         <v>0.13306000000000001</v>
@@ -4952,7 +5041,8 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>5.3629999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.0903543093820385E-2</v>
       </c>
       <c r="H91">
         <v>0.13306000000000001</v>
@@ -4999,7 +5089,8 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>9.5310000000000006E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>8.701334931544169E-2</v>
       </c>
       <c r="H92">
         <v>0.13925000000000001</v>
@@ -5043,7 +5134,8 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>4.999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.7612064465663607E-2</v>
       </c>
       <c r="H93">
         <v>0.13925000000000001</v>
@@ -5087,7 +5179,8 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>4.999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.7612064465663607E-2</v>
       </c>
       <c r="H94">
         <v>0.13925000000000001</v>
@@ -5131,7 +5224,8 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>4.999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.7612064465663607E-2</v>
       </c>
       <c r="H95">
         <v>0.13925000000000001</v>
@@ -5175,7 +5269,8 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>4.999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.7612064465663607E-2</v>
       </c>
       <c r="H96">
         <v>0.13925000000000001</v>
@@ -5219,7 +5314,8 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>4.999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>4.7612064465663607E-2</v>
       </c>
       <c r="H97">
         <v>0.13925000000000001</v>
@@ -5266,7 +5362,8 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>5.7509999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.4382345345322824E-2</v>
       </c>
       <c r="H98">
         <v>0.19566</v>
@@ -5310,7 +5407,8 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>5.7509999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.4382345345322824E-2</v>
       </c>
       <c r="H99">
         <v>0.19566</v>
@@ -5354,7 +5452,8 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>5.7509999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.4382345345322824E-2</v>
       </c>
       <c r="H100">
         <v>0.19566</v>
@@ -5398,7 +5497,8 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>5.7509999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.4382345345322824E-2</v>
       </c>
       <c r="H101">
         <v>0.19566</v>
@@ -5442,7 +5542,8 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>5.7509999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.4382345345322824E-2</v>
       </c>
       <c r="H102">
         <v>0.19566</v>
@@ -5486,7 +5587,8 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>5.7509999999999999E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.4382345345322824E-2</v>
       </c>
       <c r="H103">
         <v>0.19566</v>
@@ -5533,7 +5635,8 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>6.114E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.7616289997823644E-2</v>
       </c>
       <c r="H104">
         <v>0.14671999999999999</v>
@@ -5577,7 +5680,8 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>6.114E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.7616289997823644E-2</v>
       </c>
       <c r="H105">
         <v>0.14671999999999999</v>
@@ -5621,7 +5725,8 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>6.114E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.7616289997823644E-2</v>
       </c>
       <c r="H106">
         <v>0.14671999999999999</v>
@@ -5665,7 +5770,8 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>6.114E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.7616289997823644E-2</v>
       </c>
       <c r="H107">
         <v>0.14671999999999999</v>
@@ -5709,7 +5815,8 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>6.114E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.7616289997823644E-2</v>
       </c>
       <c r="H108">
         <v>0.14671999999999999</v>
@@ -5753,7 +5860,8 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>6.114E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.7616289997823644E-2</v>
       </c>
       <c r="H109">
         <v>0.14671999999999999</v>
@@ -5800,7 +5908,8 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>9.0389999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>8.2898308080776625E-2</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -5844,7 +5953,8 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>9.0389999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>8.2898308080776625E-2</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -5888,7 +5998,8 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>9.0389999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>8.2898308080776625E-2</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -5932,7 +6043,8 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>9.0389999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>8.2898308080776625E-2</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5976,7 +6088,8 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>9.0389999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>8.2898308080776625E-2</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -6020,7 +6133,8 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>9.0389999999999998E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>8.2898308080776625E-2</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6067,7 +6181,8 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>5.7889999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.4725908644300998E-2</v>
       </c>
       <c r="H116">
         <v>0.14549999999999999</v>
@@ -6111,7 +6226,8 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>5.7889999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.4725908644300998E-2</v>
       </c>
       <c r="H117">
         <v>0.14549999999999999</v>
@@ -6155,7 +6271,8 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>5.7889999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.4725908644300998E-2</v>
       </c>
       <c r="H118">
         <v>0.14549999999999999</v>
@@ -6199,7 +6316,8 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>5.7889999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.4725908644300998E-2</v>
       </c>
       <c r="H119">
         <v>0.14549999999999999</v>
@@ -6243,7 +6361,8 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>5.7889999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.4725908644300998E-2</v>
       </c>
       <c r="H120">
         <v>0.14549999999999999</v>
@@ -6287,7 +6406,8 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>5.7889999999999997E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>5.4725908644300998E-2</v>
       </c>
       <c r="H121">
         <v>0.14549999999999999</v>
